--- a/Dane/SOR.tsv.xlsx
+++ b/Dane/SOR.tsv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HP\Documents\Moje\Zadania\Praca magisterska\Projekt-magisterski\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F755368C-A4E3-4DCC-BBBB-867CE7ABD7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09059319-E491-498F-A5DA-DEC34121F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{1F7ACC45-B2D8-493D-ABBC-DE30F09DD553}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>Lp. SORu</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">28, 43, 44 </t>
+  </si>
+  <si>
+    <t>Lp.</t>
   </si>
 </sst>
 </file>
@@ -785,10 +788,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1165,999 +1174,1147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFC157F-0935-4134-95C4-41B2B7AEFF10}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>53</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>22</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>22</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>22</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>25</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>22</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>25</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>7</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>7</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>22</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>7</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>28</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>25</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
         <v>9</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
         <v>9</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
         <v>9</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
         <v>9</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>26</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
         <v>10</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>54</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
         <v>10</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>12</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
         <v>10</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
         <v>10</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>21</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>25</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
         <v>10</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>30</v>
       </c>
     </row>

--- a/Dane/SOR.tsv.xlsx
+++ b/Dane/SOR.tsv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HP\Documents\Moje\Zadania\Praca magisterska\Projekt-magisterski\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09059319-E491-498F-A5DA-DEC34121F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D48D34-18BA-40E0-8C4D-986A936848B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{1F7ACC45-B2D8-493D-ABBC-DE30F09DD553}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
-  <si>
-    <t>Lp. SORu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
   <si>
     <t>SOR</t>
   </si>
@@ -272,13 +269,22 @@
   </si>
   <si>
     <t>Lp.</t>
+  </si>
+  <si>
+    <t>Lp. szpitala</t>
+  </si>
+  <si>
+    <t>Szpital</t>
+  </si>
+  <si>
+    <t>Górnośląskie Centrum Zdrowia Dziecka im. św. Jana Pawła II Samodzielny Publiczny Szpital Kliniczny Nr 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +432,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1174,16 +1187,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFC157F-0935-4134-95C4-41B2B7AEFF10}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="54.44140625" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -1193,25 +1206,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1222,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>25</v>
@@ -1245,13 +1258,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>53</v>
@@ -1268,13 +1281,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1291,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
@@ -1314,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>22</v>
@@ -1337,19 +1350,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
-        <v>22</v>
-      </c>
       <c r="G7" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1357,22 +1370,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
         <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1383,19 +1396,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1406,19 +1419,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1426,22 +1439,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
         <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1">
-        <v>22</v>
-      </c>
-      <c r="G11" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1449,22 +1462,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1472,22 +1485,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
       <c r="G13" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1495,114 +1508,114 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
         <v>25</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
       <c r="G17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
         <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1610,137 +1623,137 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>22</v>
       </c>
       <c r="G19" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="F20" s="1">
+        <v>25</v>
       </c>
       <c r="G20" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15</v>
       </c>
       <c r="G22" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G23" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="1">
-        <v>53</v>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G24" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1748,45 +1761,45 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="1">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G25" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>15</v>
       </c>
       <c r="G26" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1797,19 +1810,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1820,19 +1833,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="1">
-        <v>28</v>
+      <c r="F28" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G28" s="1">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1840,22 +1853,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1863,22 +1876,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1886,22 +1899,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>22</v>
       </c>
       <c r="G31" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1909,22 +1922,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G32" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1932,22 +1945,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1955,22 +1968,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="F34" s="1">
+        <v>28</v>
       </c>
       <c r="G34" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1978,22 +1991,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>15</v>
       </c>
       <c r="G35" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2001,22 +2014,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2024,22 +2037,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>25</v>
       </c>
       <c r="G37" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2047,22 +2060,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G38" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2073,19 +2086,19 @@
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2096,19 +2109,19 @@
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G40" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2119,19 +2132,19 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="1">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G41" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2139,22 +2152,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G42" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2162,22 +2175,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G43" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2185,22 +2198,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="1">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G44" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2208,22 +2221,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="1">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G45" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2231,22 +2244,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G46" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2254,22 +2267,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="1">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G47" s="1">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2277,22 +2290,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F48" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G48" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2300,25 +2313,233 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="1">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="1">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="1">
+        <v>21</v>
+      </c>
+      <c r="G55" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>25</v>
+      </c>
+      <c r="G56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="G57" s="1">
         <v>30</v>
       </c>
     </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>15</v>
+      </c>
+      <c r="G58" s="1">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dane/SOR.tsv.xlsx
+++ b/Dane/SOR.tsv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HP\Documents\Moje\Zadania\Praca magisterska\Projekt-magisterski\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D48D34-18BA-40E0-8C4D-986A936848B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D803F-6FED-44AD-B934-DB7ADE76AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{1F7ACC45-B2D8-493D-ABBC-DE30F09DD553}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
   <si>
-    <t>SOR</t>
-  </si>
-  <si>
     <t>Adres</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Górnośląskie Centrum Zdrowia Dziecka im. św. Jana Pawła II Samodzielny Publiczny Szpital Kliniczny Nr 14</t>
+  </si>
+  <si>
+    <t>Szpitalny Oddział Ratunkowy</t>
   </si>
 </sst>
 </file>
@@ -1189,42 +1189,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFC157F-0935-4134-95C4-41B2B7AEFF10}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="7.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1235,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>25</v>
@@ -1258,13 +1258,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>53</v>
@@ -1281,13 +1281,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1304,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
@@ -1327,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>22</v>
@@ -1350,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
@@ -1373,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>22</v>
@@ -1396,13 +1396,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>25</v>
@@ -1419,13 +1419,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1442,16 +1442,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G11" s="1">
         <v>20</v>
@@ -1465,13 +1465,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1">
         <v>15</v>
@@ -1488,13 +1488,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1">
         <v>22</v>
@@ -1511,13 +1511,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1534,13 +1534,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
         <v>15</v>
@@ -1557,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1580,13 +1580,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
         <v>25</v>
@@ -1603,13 +1603,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1">
         <v>15</v>
@@ -1618,7 +1618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1626,13 +1626,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F19" s="1">
         <v>22</v>
@@ -1641,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1649,13 +1649,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1">
         <v>25</v>
@@ -1664,7 +1664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1672,13 +1672,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1695,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1">
         <v>15</v>
@@ -1710,7 +1710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1718,22 +1718,22 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G23" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1741,16 +1741,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1">
         <v>38</v>
@@ -1764,22 +1764,22 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G25" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1787,13 +1787,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1">
         <v>15</v>
@@ -1810,13 +1810,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1833,16 +1833,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G28" s="1">
         <v>37</v>
@@ -1856,13 +1856,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
@@ -1879,13 +1879,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1">
         <v>53</v>
@@ -1902,13 +1902,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="1">
         <v>22</v>
@@ -1925,16 +1925,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1">
         <v>25</v>
@@ -1948,16 +1948,16 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G33" s="1">
         <v>44</v>
@@ -1971,13 +1971,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1">
         <v>28</v>
@@ -1994,13 +1994,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1">
         <v>15</v>
@@ -2017,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
@@ -2040,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1">
         <v>25</v>
@@ -2063,16 +2063,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="1">
         <v>36</v>
@@ -2086,13 +2086,13 @@
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2109,16 +2109,16 @@
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G40" s="1">
         <v>50</v>
@@ -2132,16 +2132,16 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G41" s="1">
         <v>25</v>
@@ -2155,16 +2155,16 @@
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G42" s="1">
         <v>8</v>
@@ -2178,16 +2178,16 @@
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G43" s="1">
         <v>31</v>
@@ -2201,16 +2201,16 @@
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G44" s="1">
         <v>35</v>
@@ -2224,16 +2224,16 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G45" s="1">
         <v>40</v>
@@ -2247,16 +2247,16 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G46" s="1">
         <v>38</v>
@@ -2270,16 +2270,16 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G47" s="1">
         <v>52</v>
@@ -2293,13 +2293,13 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" s="1">
         <v>26</v>
@@ -2316,13 +2316,13 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F49" s="1">
         <v>15</v>
@@ -2339,13 +2339,13 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -2362,16 +2362,16 @@
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G51" s="1">
         <v>30</v>
@@ -2385,13 +2385,13 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F52" s="1">
         <v>54</v>
@@ -2408,13 +2408,13 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F53" s="1">
         <v>12</v>
@@ -2431,16 +2431,16 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G54" s="1">
         <v>30</v>
@@ -2454,13 +2454,13 @@
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F55" s="1">
         <v>21</v>
@@ -2477,13 +2477,13 @@
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1">
         <v>25</v>
@@ -2500,16 +2500,16 @@
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G57" s="1">
         <v>30</v>
@@ -2523,13 +2523,13 @@
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="F58" s="1">
         <v>15</v>
